--- a/chatbot - Sysco.xlsx
+++ b/chatbot - Sysco.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11201322\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11201322\Documents\chatbot-CGL- Sysco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D85C87-E13D-4487-A249-1D0C2BA2BBC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F533528-A8FB-42FD-A365-59F7C805B46E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{62C85670-35FA-4D97-B789-A1EEBD53B761}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="48">
   <si>
     <t>Hi</t>
   </si>
@@ -154,6 +154,27 @@
   </si>
   <si>
     <t>Among Farm Produce we have 1. Carrots 2. Tomato 3. Potato 4. Onions 5. Broccili</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Great! What product are you looking for today?</t>
+  </si>
+  <si>
+    <t>Distributor</t>
+  </si>
+  <si>
+    <t>Retailer</t>
+  </si>
+  <si>
+    <t>Executive</t>
+  </si>
+  <si>
+    <t>Crompton Executive</t>
+  </si>
+  <si>
+    <t>Great! Please enter your Sysco UserID</t>
   </si>
 </sst>
 </file>
@@ -505,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09DCF6BF-0F4F-4881-9E36-3D3059FC833D}">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,6 +818,46 @@
         <v>8</v>
       </c>
     </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/chatbot - Sysco.xlsx
+++ b/chatbot - Sysco.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11201322\Documents\chatbot-CGL- Sysco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F533528-A8FB-42FD-A365-59F7C805B46E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE7FA69-BBFF-4775-9D53-33553AB3064B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{62C85670-35FA-4D97-B789-A1EEBD53B761}"/>
   </bookViews>
@@ -69,9 +69,6 @@
     <t>Meat</t>
   </si>
   <si>
-    <t>We have multiple kinds of Meat. Please select your choice. 1.Beef 2. Pork 3. Chicken</t>
-  </si>
-  <si>
     <t>Order Meat</t>
   </si>
   <si>
@@ -123,9 +120,6 @@
     <t>Cool Dairy</t>
   </si>
   <si>
-    <t>Among Dairy products we have 1. Milk 2. Yogurt 3. Greek Yogurt 4. Cheese 5. Milk Powder 6. Butter 7. Ice Cream</t>
-  </si>
-  <si>
     <t>Produce</t>
   </si>
   <si>
@@ -175,6 +169,12 @@
   </si>
   <si>
     <t>Great! Please enter your Sysco UserID</t>
+  </si>
+  <si>
+    <t>We have multiple kinds of Meat. Please select your choice. 1.&lt;a href = 'https://www.sysco.com/Products/Products/Product-Categories.html',target='_blank'&gt;Beef&lt;/a&gt; 2. &lt;a href = 'https://www.sysco.com/Products/Products/Product-Categories.html',target='_blank'&gt;Pork&lt;/a&gt; 3. &lt;a href = 'https://www.sysco.com/Products/Products/Product-Categories.html',target='_blank'&gt;Chicken&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Among Dairy products we have 1. &lt;a href = 'https://www.sysco.com/Products/Products/Product-Categories.html',target='_blank'&gt;Milk&lt;/a&gt; 2. &lt;a href = 'https://www.sysco.com/Products/Products/Product-Categories.html',target='_blank'&gt;Yogurt&lt;/a&gt; 3. &lt;a href = 'https://www.sysco.com/Products/Products/Product-Categories.html',target='_blank'&gt;Greek Yogurt&lt;/a&gt; 4. &lt;a href = 'https://www.sysco.com/Products/Products/Product-Categories.html',target='_blank'&gt;Cheese&lt;/a&gt; 5. &lt;a href = 'https://www.sysco.com/Products/Products/Product-Categories.html',target='_blank'&gt;Milk Powder&lt;/a&gt; 6. &lt;a href = 'https://www.sysco.com/Products/Products/Product-Categories.html',target='_blank'&gt;Butter&lt;/a&gt; 7. &lt;a href = 'https://www.sysco.com/Products/Products/Product-Categories.html',target='_blank'&gt;Ice Cream&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -528,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09DCF6BF-0F4F-4881-9E36-3D3059FC833D}">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,215 +551,215 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" t="s">
         <v>38</v>
-      </c>
-      <c r="B27" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -820,42 +820,42 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" t="s">
         <v>45</v>
-      </c>
-      <c r="B39" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/chatbot - Sysco.xlsx
+++ b/chatbot - Sysco.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11201322\Documents\chatbot-CGL- Sysco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE7FA69-BBFF-4775-9D53-33553AB3064B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B71A2BC-0759-4CDE-B4E0-83F50A298978}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{62C85670-35FA-4D97-B789-A1EEBD53B761}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="49">
   <si>
     <t>Hi</t>
   </si>
@@ -147,9 +147,6 @@
     <t>Cool Produce</t>
   </si>
   <si>
-    <t>Among Farm Produce we have 1. Carrots 2. Tomato 3. Potato 4. Onions 5. Broccili</t>
-  </si>
-  <si>
     <t>Customer</t>
   </si>
   <si>
@@ -171,10 +168,16 @@
     <t>Great! Please enter your Sysco UserID</t>
   </si>
   <si>
-    <t>We have multiple kinds of Meat. Please select your choice. 1.&lt;a href = 'https://www.sysco.com/Products/Products/Product-Categories.html',target='_blank'&gt;Beef&lt;/a&gt; 2. &lt;a href = 'https://www.sysco.com/Products/Products/Product-Categories.html',target='_blank'&gt;Pork&lt;/a&gt; 3. &lt;a href = 'https://www.sysco.com/Products/Products/Product-Categories.html',target='_blank'&gt;Chicken&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Among Dairy products we have 1. &lt;a href = 'https://www.sysco.com/Products/Products/Product-Categories.html',target='_blank'&gt;Milk&lt;/a&gt; 2. &lt;a href = 'https://www.sysco.com/Products/Products/Product-Categories.html',target='_blank'&gt;Yogurt&lt;/a&gt; 3. &lt;a href = 'https://www.sysco.com/Products/Products/Product-Categories.html',target='_blank'&gt;Greek Yogurt&lt;/a&gt; 4. &lt;a href = 'https://www.sysco.com/Products/Products/Product-Categories.html',target='_blank'&gt;Cheese&lt;/a&gt; 5. &lt;a href = 'https://www.sysco.com/Products/Products/Product-Categories.html',target='_blank'&gt;Milk Powder&lt;/a&gt; 6. &lt;a href = 'https://www.sysco.com/Products/Products/Product-Categories.html',target='_blank'&gt;Butter&lt;/a&gt; 7. &lt;a href = 'https://www.sysco.com/Products/Products/Product-Categories.html',target='_blank'&gt;Ice Cream&lt;/a&gt;</t>
+    <t>farm produce</t>
+  </si>
+  <si>
+    <t>We have multiple kinds of Meat. Please select your choice. 1.&lt;a href = 'https://www.sysco.com/Products/Products/Product-Categories.html' target='_blank'&gt;Beef&lt;/a&gt; 2. &lt;a href = 'https://www.sysco.com/Products/Products/Product-Categories.html' target='_blank'&gt;Pork&lt;/a&gt; 3. &lt;a href = 'https://www.sysco.com/Products/Products/Product-Categories.html' target='_blank'&gt;Chicken&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Among Dairy products we have 1. &lt;a href = 'https://www.sysco.com/Products/Products/Product-Categories.html' target='_blank'&gt;Milk&lt;/a&gt; 2. &lt;a href = 'https://www.sysco.com/Products/Products/Product-Categories.html' target='_blank'&gt;Yogurt&lt;/a&gt; 3. &lt;a href = 'https://www.sysco.com/Products/Products/Product-Categories.html' target='_blank'&gt;Greek Yogurt&lt;/a&gt; 4. &lt;a href = 'https://www.sysco.com/Products/Products/Product-Categories.html' target='_blank'&gt;Cheese&lt;/a&gt; 5. &lt;a href = 'https://www.sysco.com/Products/Products/Product-Categories.html' target='_blank'&gt;Milk Powder&lt;/a&gt; 6. &lt;a href = 'https://www.sysco.com/Products/Products/Product-Categories.html' target='_blank'&gt;Butter&lt;/a&gt; 7. &lt;a href = 'https://www.sysco.com/Products/Products/Product-Categories.html' target='_blank'&gt;Ice Cream&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Among Farm Produce we have 1. &lt;a href = 'https://www.sysco.com/Products/Products/Product-Categories.html' target='_blank'&gt;Carrots&lt;/a&gt; 2. &lt;a href = 'https://www.sysco.com/Products/Products/Product-Categories.html' target='_blank'&gt;Tomato&lt;/a&gt; 3. &lt;a href = 'https://www.sysco.com/Products/Products/Product-Categories.html' target='_blank'&gt;Potato&lt;/a&gt; 4. &lt;a href = 'https://www.sysco.com/Products/Products/Product-Categories.html' target='_blank'&gt;Onions&lt;/a&gt; 5. &lt;a href = 'https://www.sysco.com/Products/Products/Product-Categories.html' target='_blank'&gt;Broccili&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -526,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09DCF6BF-0F4F-4881-9E36-3D3059FC833D}">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,7 +698,7 @@
         <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -703,7 +706,7 @@
         <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -711,7 +714,7 @@
         <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -719,7 +722,7 @@
         <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -727,7 +730,7 @@
         <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -735,7 +738,7 @@
         <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -743,7 +746,7 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -751,28 +754,28 @@
         <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B30" t="s">
         <v>1</v>
@@ -780,7 +783,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B31" t="s">
         <v>1</v>
@@ -788,7 +791,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B32" t="s">
         <v>1</v>
@@ -796,7 +799,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B33" t="s">
         <v>1</v>
@@ -804,7 +807,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B34" t="s">
         <v>1</v>
@@ -812,50 +815,58 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
         <v>44</v>
       </c>
-      <c r="B40" t="s">
-        <v>45</v>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
